--- a/data/trans_orig/P1434-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Habitat-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>17523</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11037</v>
+        <v>10440</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27665</v>
+        <v>26996</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02524812817609452</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01590335283093292</v>
+        <v>0.01504307763194337</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03986202637143197</v>
+        <v>0.03889790821977176</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>676489</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>666347</v>
+        <v>667016</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>682975</v>
+        <v>683572</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9747518718239054</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9601379736285682</v>
+        <v>0.9611020917802282</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9840966471690675</v>
+        <v>0.9849569223680568</v>
       </c>
     </row>
     <row r="6">
@@ -715,7 +715,7 @@
         <v>34283</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23955</v>
+        <v>23305</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>46637</v>
@@ -724,10 +724,10 @@
         <v>0.03564436748614234</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02490606622061325</v>
+        <v>0.02423058220867036</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04848980430724158</v>
+        <v>0.04848894699225338</v>
       </c>
     </row>
     <row r="8">
@@ -747,16 +747,16 @@
         <v>915163</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>937845</v>
+        <v>938495</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9643556325138577</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9515101956927587</v>
+        <v>0.9515110530077467</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9750939337793869</v>
+        <v>0.9757694177913296</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>22815</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15405</v>
+        <v>14816</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34187</v>
+        <v>33970</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03362471949084225</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02270375706398992</v>
+        <v>0.02183685086297907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05038609118091417</v>
+        <v>0.0500651546623427</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>655694</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>644322</v>
+        <v>644539</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>663104</v>
+        <v>663693</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9663752805091578</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9496139088190858</v>
+        <v>0.9499348453376577</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9772962429360101</v>
+        <v>0.9781631491370212</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>31568</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23259</v>
+        <v>22568</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43538</v>
+        <v>42313</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03350336266962756</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02468538498635765</v>
+        <v>0.02395194077049674</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04620794983614682</v>
+        <v>0.04490727763550181</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>910654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>898684</v>
+        <v>899909</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>918963</v>
+        <v>919654</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9664966373303725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9537920501638532</v>
+        <v>0.9550927223644982</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9753146150136422</v>
+        <v>0.9760480592295032</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>106188</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>87844</v>
+        <v>88342</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126888</v>
+        <v>127426</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03240840611078726</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02680995041772366</v>
+        <v>0.02696188368531471</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03872607797091985</v>
+        <v>0.03889034669298826</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>3170355</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3149655</v>
+        <v>3149117</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3188699</v>
+        <v>3188201</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9675915938892128</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.96127392202908</v>
+        <v>0.9611096533070123</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9731900495822763</v>
+        <v>0.9730381163146854</v>
       </c>
     </row>
     <row r="18">
@@ -1197,19 +1197,19 @@
         <v>22435</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14179</v>
+        <v>13287</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36104</v>
+        <v>34863</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03189206723155295</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02015564400969698</v>
+        <v>0.01888725591710051</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05132278227524356</v>
+        <v>0.04955890039798776</v>
       </c>
     </row>
     <row r="5">
@@ -1226,19 +1226,19 @@
         <v>681034</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>667365</v>
+        <v>668606</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>689290</v>
+        <v>690182</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9681079327684471</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9486772177247572</v>
+        <v>0.9504410996020124</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9798443559903031</v>
+        <v>0.9811127440828996</v>
       </c>
     </row>
     <row r="6">
@@ -1288,19 +1288,19 @@
         <v>32936</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23117</v>
+        <v>22268</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45726</v>
+        <v>44971</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03242524080959004</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0227586784093704</v>
+        <v>0.02192250191092466</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04501703181477649</v>
+        <v>0.04427362178343156</v>
       </c>
     </row>
     <row r="8">
@@ -1317,19 +1317,19 @@
         <v>982820</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>970030</v>
+        <v>970785</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>992639</v>
+        <v>993488</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9675747591904099</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9549829681852235</v>
+        <v>0.9557263782165683</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9772413215906296</v>
+        <v>0.9780774980890753</v>
       </c>
     </row>
     <row r="9">
@@ -1379,19 +1379,19 @@
         <v>27213</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17464</v>
+        <v>17830</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40561</v>
+        <v>41875</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03591907688625903</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02305158605303085</v>
+        <v>0.02353421031686274</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05353713468206612</v>
+        <v>0.05527194578453136</v>
       </c>
     </row>
     <row r="11">
@@ -1408,19 +1408,19 @@
         <v>730410</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>717062</v>
+        <v>715748</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>740159</v>
+        <v>739793</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9640809231137409</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.946462865317933</v>
+        <v>0.9447280542154687</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.976948413946969</v>
+        <v>0.9764657896831372</v>
       </c>
     </row>
     <row r="12">
@@ -1470,19 +1470,19 @@
         <v>41825</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30611</v>
+        <v>29881</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58485</v>
+        <v>57482</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04413095301298701</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03229927702628221</v>
+        <v>0.03152920136332204</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0617099227571302</v>
+        <v>0.06065146276083511</v>
       </c>
     </row>
     <row r="14">
@@ -1499,19 +1499,19 @@
         <v>905914</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>889254</v>
+        <v>890257</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>917128</v>
+        <v>917858</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.955869046987013</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9382900772428698</v>
+        <v>0.939348537239165</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9677007229737178</v>
+        <v>0.968470798636678</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>124409</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>102543</v>
+        <v>103271</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>148333</v>
+        <v>151843</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03632816513965646</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02994319383103293</v>
+        <v>0.03015574836783993</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04331399572559431</v>
+        <v>0.04433911553896724</v>
       </c>
     </row>
     <row r="17">
@@ -1590,19 +1590,19 @@
         <v>3300178</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3276254</v>
+        <v>3272744</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3322044</v>
+        <v>3321316</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9636718348603436</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9566860042744058</v>
+        <v>0.9556608844610328</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9700568061689671</v>
+        <v>0.96984425163216</v>
       </c>
     </row>
     <row r="18">
@@ -1770,19 +1770,19 @@
         <v>25341</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16696</v>
+        <v>17867</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35500</v>
+        <v>36528</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03755341987054122</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02474259743540606</v>
+        <v>0.0264775545086746</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05260889797200163</v>
+        <v>0.05413097733921635</v>
       </c>
     </row>
     <row r="5">
@@ -1799,19 +1799,19 @@
         <v>649459</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>639300</v>
+        <v>638272</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>658104</v>
+        <v>656933</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9624465801294588</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9473911020279983</v>
+        <v>0.9458690226607838</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9752574025645936</v>
+        <v>0.9735224454913254</v>
       </c>
     </row>
     <row r="6">
@@ -1861,19 +1861,19 @@
         <v>24826</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16690</v>
+        <v>16513</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34973</v>
+        <v>36058</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02428135056432567</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01632370582973498</v>
+        <v>0.01615083225421188</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03420612609042303</v>
+        <v>0.03526660835023609</v>
       </c>
     </row>
     <row r="8">
@@ -1890,19 +1890,19 @@
         <v>997605</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>987458</v>
+        <v>986373</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1005741</v>
+        <v>1005918</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9757186494356743</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.965793873909577</v>
+        <v>0.9647333916497659</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.983676294170265</v>
+        <v>0.9838491677457885</v>
       </c>
     </row>
     <row r="9">
@@ -1952,19 +1952,19 @@
         <v>23438</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14866</v>
+        <v>15174</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34465</v>
+        <v>34346</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03085797787495553</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0195718966432197</v>
+        <v>0.01997725669828568</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04537486616744327</v>
+        <v>0.04521878335153416</v>
       </c>
     </row>
     <row r="11">
@@ -1981,19 +1981,19 @@
         <v>736114</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>725087</v>
+        <v>725206</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>744686</v>
+        <v>744378</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9691420221250445</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9546251338325569</v>
+        <v>0.954781216648466</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9804281033567804</v>
+        <v>0.9800227433017145</v>
       </c>
     </row>
     <row r="12">
@@ -2043,19 +2043,19 @@
         <v>35397</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24692</v>
+        <v>25619</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48013</v>
+        <v>48675</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0377541997402167</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02633612900634541</v>
+        <v>0.02732479088727291</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05121060483002727</v>
+        <v>0.05191651952938964</v>
       </c>
     </row>
     <row r="14">
@@ -2072,19 +2072,19 @@
         <v>902170</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>889554</v>
+        <v>888892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>912875</v>
+        <v>911948</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9622458002597833</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9487893951699727</v>
+        <v>0.9480834804706103</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9736638709936546</v>
+        <v>0.972675209112727</v>
       </c>
     </row>
     <row r="15">
@@ -2134,19 +2134,19 @@
         <v>109002</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>91378</v>
+        <v>90215</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>130713</v>
+        <v>129963</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0321128885917014</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02692065483006062</v>
+        <v>0.02657793845890024</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03850902931254336</v>
+        <v>0.03828818205783788</v>
       </c>
     </row>
     <row r="17">
@@ -2163,19 +2163,19 @@
         <v>3285348</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3263637</v>
+        <v>3264387</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3302972</v>
+        <v>3304135</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9678871114082986</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9614909706874567</v>
+        <v>0.9617118179421621</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9730793451699394</v>
+        <v>0.9734220615410997</v>
       </c>
     </row>
     <row r="18">
@@ -2343,19 +2343,19 @@
         <v>48045</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37907</v>
+        <v>38151</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59940</v>
+        <v>59816</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06969849336104299</v>
+        <v>0.06969849336104302</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05499136284291171</v>
+        <v>0.05534476070465907</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08695352198045224</v>
+        <v>0.08677358296321801</v>
       </c>
     </row>
     <row r="5">
@@ -2372,19 +2372,19 @@
         <v>641288</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>629393</v>
+        <v>629517</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>651426</v>
+        <v>651182</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9303015066389568</v>
+        <v>0.9303015066389572</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9130464780195477</v>
+        <v>0.9132264170367821</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9450086371570884</v>
+        <v>0.9446552392953412</v>
       </c>
     </row>
     <row r="6">
@@ -2434,19 +2434,19 @@
         <v>50985</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39096</v>
+        <v>40574</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64082</v>
+        <v>64897</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04882407403334357</v>
+        <v>0.04882407403334356</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03743848721053143</v>
+        <v>0.0388539372801832</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06136545165937782</v>
+        <v>0.06214602364620198</v>
       </c>
     </row>
     <row r="8">
@@ -2463,19 +2463,19 @@
         <v>993277</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>980180</v>
+        <v>979365</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1005166</v>
+        <v>1003688</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9511759259666566</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9386345483406222</v>
+        <v>0.9378539763537981</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9625615127894688</v>
+        <v>0.9611460627198168</v>
       </c>
     </row>
     <row r="9">
@@ -2525,19 +2525,19 @@
         <v>30375</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21579</v>
+        <v>21735</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42037</v>
+        <v>42041</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03815474546100658</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02710567220918694</v>
+        <v>0.02730134015273195</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05280271937790558</v>
+        <v>0.05280831187301471</v>
       </c>
     </row>
     <row r="11">
@@ -2554,19 +2554,19 @@
         <v>765733</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>754071</v>
+        <v>754067</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>774529</v>
+        <v>774373</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9618452545389934</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9471972806220943</v>
+        <v>0.9471916881269854</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.972894327790813</v>
+        <v>0.972698659847268</v>
       </c>
     </row>
     <row r="12">
@@ -2616,19 +2616,19 @@
         <v>63670</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52065</v>
+        <v>51495</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77025</v>
+        <v>78065</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06480043806991455</v>
+        <v>0.06480043806991452</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05298947518201488</v>
+        <v>0.05240918185683587</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07839221702103565</v>
+        <v>0.07945045344659747</v>
       </c>
     </row>
     <row r="14">
@@ -2645,19 +2645,19 @@
         <v>918886</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>905531</v>
+        <v>904491</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>930491</v>
+        <v>931061</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9351995619300855</v>
+        <v>0.9351995619300852</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9216077829789644</v>
+        <v>0.920549546553403</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9470105248179853</v>
+        <v>0.9475908181431643</v>
       </c>
     </row>
     <row r="15">
@@ -2707,19 +2707,19 @@
         <v>193076</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>170878</v>
+        <v>170695</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>217407</v>
+        <v>216101</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05497201421889269</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04865183142197058</v>
+        <v>0.04859966704110641</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06189953766040319</v>
+        <v>0.06152756183689279</v>
       </c>
     </row>
     <row r="17">
@@ -2736,19 +2736,19 @@
         <v>3319184</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3294853</v>
+        <v>3296159</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3341382</v>
+        <v>3341565</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9450279857811074</v>
+        <v>0.9450279857811072</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9381004623395968</v>
+        <v>0.9384724381631072</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9513481685780295</v>
+        <v>0.9514003329588936</v>
       </c>
     </row>
     <row r="18">
